--- a/relativePositionPistonValve.xlsx
+++ b/relativePositionPistonValve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Personal\CATA\02 FoU projekter\SPIRIT\stempel_kompressorer\pistonCompressorOperation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8097AF-18A4-4FD6-BB77-A6BE09FEA387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE91598-70DF-4A98-913F-95CAAC4948FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -256,8 +255,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -294,20 +294,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +592,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,16 +604,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -636,7 +637,7 @@
       <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="str">
+      <c r="L2" s="2" t="str">
         <f>B3</f>
         <v>0.09351</v>
       </c>
@@ -645,28 +646,28 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <f>C5-B3</f>
         <v>0.16200000000000003</v>
       </c>
@@ -675,28 +676,28 @@
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
@@ -704,28 +705,28 @@
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -733,28 +734,28 @@
       <c r="A6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -762,28 +763,28 @@
       <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -791,28 +792,28 @@
       <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -820,7 +821,7 @@
       <c r="K9" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="3" t="str">
+      <c r="L9" s="2" t="str">
         <f>D7</f>
         <v>0.05901</v>
       </c>
@@ -829,7 +830,7 @@
       <c r="K10" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <f>G8-D7</f>
         <v>0.22999999999999998</v>
       </c>
@@ -838,7 +839,7 @@
       <c r="K11" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
@@ -846,7 +847,7 @@
       <c r="K12" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -855,21 +856,25 @@
         <f>L9+(L10-2*L11-L12)</f>
         <v>9.9009999999999987E-2</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K14" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E15" s="5">
+        <f>(L10-L12-2*L11)/2</f>
+        <v>1.999999999999999E-2</v>
+      </c>
       <c r="K15" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -877,15 +882,19 @@
       <c r="K16" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E17" s="5">
+        <f>D7+E15</f>
+        <v>7.9009999999999997E-2</v>
+      </c>
       <c r="K17" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="1" t="s">
         <v>70</v>
       </c>
     </row>

--- a/relativePositionPistonValve.xlsx
+++ b/relativePositionPistonValve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Personal\CATA\02 FoU projekter\SPIRIT\stempel_kompressorer\pistonCompressorOperation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE91598-70DF-4A98-913F-95CAAC4948FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658B604D-1AEA-46AD-AD73-F557DE8E931A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,7 +257,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -274,12 +274,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -294,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -302,13 +308,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,7 +599,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,7 +680,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -682,7 +689,7 @@
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>9.5399999999999999E-2</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -852,10 +859,6 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E13">
-        <f>L9+(L10-2*L11-L12)</f>
-        <v>9.9009999999999987E-2</v>
-      </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -867,10 +870,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E15" s="5">
-        <f>(L10-L12-2*L11)/2</f>
-        <v>1.999999999999999E-2</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="K15" t="s">
         <v>65</v>
       </c>
@@ -887,10 +887,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E17" s="5">
-        <f>D7+E15</f>
-        <v>7.9009999999999997E-2</v>
-      </c>
+      <c r="E17" s="3"/>
       <c r="K17" t="s">
         <v>69</v>
       </c>

--- a/relativePositionPistonValve.xlsx
+++ b/relativePositionPistonValve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Personal\CATA\02 FoU projekter\SPIRIT\stempel_kompressorer\pistonCompressorOperation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658B604D-1AEA-46AD-AD73-F557DE8E931A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E0282-7CEB-4F97-A4CB-A3DFAA770615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -309,13 +309,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,30 +599,30 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -649,7 +649,7 @@
         <v>0.09351</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -679,8 +679,8 @@
         <v>0.16200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -689,7 +689,7 @@
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>9.5399999999999999E-2</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -708,7 +708,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -737,7 +737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -766,7 +766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -795,7 +795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -824,7 +824,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
         <v>17</v>
       </c>
@@ -833,7 +833,7 @@
         <v>0.05901</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
         <v>20</v>
       </c>
@@ -842,7 +842,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
         <v>24</v>
       </c>
@@ -850,7 +850,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
         <v>25</v>
       </c>
@@ -858,10 +858,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>63</v>
       </c>
@@ -869,7 +869,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
       <c r="K15" t="s">
         <v>65</v>
@@ -878,7 +878,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
         <v>66</v>
       </c>
@@ -886,7 +886,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
       <c r="K17" t="s">
         <v>69</v>
